--- a/biology/Zoologie/Goniopsis_pelii/Goniopsis_pelii.xlsx
+++ b/biology/Zoologie/Goniopsis_pelii/Goniopsis_pelii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goniopsis pelii, le Crabe violet des mangroves[réf. nécessaire], est une espèce de crabes de la famille des Grapsidae[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goniopsis pelii, le Crabe violet des mangroves[réf. nécessaire], est une espèce de crabes de la famille des Grapsidae,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce crabe a des bandes blanches latérales distinctes sur les pattes. Il a un bord frontal carré[3], et est poilu sur les pattes. Les pinces sont souvent les plus colorées en violet. La largeur de la carapace est d’environ 5 cm. G. pelii évolue souvent en groupes de nombreux individus, qui creusent des tunnels sous la mangrove, tunnels se recouvrant et se faisant submerger d’eau lors de la marée montante[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce crabe a des bandes blanches latérales distinctes sur les pattes. Il a un bord frontal carré, et est poilu sur les pattes. Les pinces sont souvent les plus colorées en violet. La largeur de la carapace est d’environ 5 cm. G. pelii évolue souvent en groupes de nombreux individus, qui creusent des tunnels sous la mangrove, tunnels se recouvrant et se faisant submerger d’eau lors de la marée montante.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présent de manière généralisée en Afrique de l’Ouest dans le golfe de Guinée, il se retrouve plus précisément sur un sol vaseux à sableux, en eaux saumâtres lagunaires, notamment au milieu de la végétation hélophyte[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présent de manière généralisée en Afrique de l’Ouest dans le golfe de Guinée, il se retrouve plus précisément sur un sol vaseux à sableux, en eaux saumâtres lagunaires, notamment au milieu de la végétation hélophyte.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Goniopsis pelii (Herklots, 1851)[5].
-L'espèce a été initialement classée dans le genre Grapsus sous le protonyme Grapsus pelii Herklots, 1851[5],[2].
-Goniopsis pelii a pour synonymes[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Goniopsis pelii (Herklots, 1851).
+L'espèce a été initialement classée dans le genre Grapsus sous le protonyme Grapsus pelii Herklots, 1851,.
+Goniopsis pelii a pour synonymes :
 Grapsus pelii Herklots, 1851
 Grapsus simplex Herklots, 1851</t>
         </is>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(la) Janus Adrianus Herklots, Specimen zoographicum inaugurale, continens additamenta ad faunam carcinologicam Africae occidentalis, sive, Descriptiones specierum novarum e Crustacecrum ordine quas in Guinea : collegit vir strenuus H.S. Pel..., Lugduni-Batavorum, Apud J.W. van Leeuwen, 1851, 31 p. (lire en ligne), p. 8-9.</t>
         </is>
